--- a/clockshift/dimer_metadata_file.xlsx
+++ b/clockshift/dimer_metadata_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\unobtainium\E_Carmen_Santiago\Analysis Scripts\analysis\clockshift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\analysis\clockshift\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C164AC-7A58-4E3E-85FA-8FF209B2CF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="16695"/>
+    <workbookView xWindow="-54720" yWindow="2415" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -557,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/clockshift/dimer_metadata_file.xlsx
+++ b/clockshift/dimer_metadata_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\analysis\clockshift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C164AC-7A58-4E3E-85FA-8FF209B2CF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6176C557-DB40-4AA7-A5ED-BB32280D9BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54720" yWindow="2415" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18030" yWindow="1530" windowWidth="16410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>filename</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>2024-10-03_C_e_smallbox</t>
+  </si>
+  <si>
+    <t>2024-10-30_D_e</t>
+  </si>
+  <si>
+    <t>[[-4,-3.7]]</t>
+  </si>
+  <si>
+    <t>2024-10-24_I_e</t>
+  </si>
+  <si>
+    <t>[[-6, -4.8]]</t>
+  </si>
+  <si>
+    <t>2024-10-30_B_e</t>
+  </si>
+  <si>
+    <t>[[-4,-2.7]]</t>
   </si>
 </sst>
 </file>
@@ -241,10 +259,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2114,6 +2133,161 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>377</v>
+      </c>
+      <c r="F27" s="1">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>8</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="1">
+        <v>204</v>
+      </c>
+      <c r="O27" s="1">
+        <v>47.436799999999998</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>377</v>
+      </c>
+      <c r="F28" s="1">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="1">
+        <v>202.14</v>
+      </c>
+      <c r="O28" s="1">
+        <v>47.222700000000003</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>377</v>
+      </c>
+      <c r="F29" s="1">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="J29" s="1">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" s="1">
+        <v>209</v>
+      </c>
+      <c r="O29" s="1">
+        <v>48.272590000000001</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/clockshift/dimer_metadata_file.xlsx
+++ b/clockshift/dimer_metadata_file.xlsx
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>

--- a/clockshift/dimer_metadata_file.xlsx
+++ b/clockshift/dimer_metadata_file.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\analysis\clockshift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\UNOBTAINIUM\E_Carmen_Santiago\Analysis Scripts\analysis\clockshift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6176C557-DB40-4AA7-A5ED-BB32280D9BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18030" yWindow="1530" windowWidth="16410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16110" yWindow="1530" windowWidth="16410" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>filename</t>
   </si>
@@ -180,9 +179,6 @@
     <t>[[-5.1, -4.9],[-3.1,-2.9]]</t>
   </si>
   <si>
-    <t>[[-4.1, -4.04],[-3.96, -3.9]]</t>
-  </si>
-  <si>
     <t>load_lineshape</t>
   </si>
   <si>
@@ -211,12 +207,18 @@
   </si>
   <si>
     <t>[[-4,-2.7]]</t>
+  </si>
+  <si>
+    <t>2025-03-19_G_e_pulsetime=0.64</t>
+  </si>
+  <si>
+    <t>2025-03-19_G_e_pulsetime=0.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -577,11 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="T1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V1" t="s">
         <v>11</v>
@@ -803,7 +805,7 @@
         <v>-3.9</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>202.14</v>
@@ -2015,7 +2017,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -2073,7 +2075,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
@@ -2135,7 +2137,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -2161,7 +2163,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N27" s="1">
         <v>204</v>
@@ -2187,7 +2189,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -2215,7 +2217,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N28" s="1">
         <v>202.14</v>
@@ -2241,7 +2243,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -2267,7 +2269,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N29" s="1">
         <v>209</v>
@@ -2285,6 +2287,106 @@
         <v>0</v>
       </c>
       <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>377</v>
+      </c>
+      <c r="F30" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="N30" s="1">
+        <v>202.14</v>
+      </c>
+      <c r="O30" s="1">
+        <v>47.222700000000003</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>377</v>
+      </c>
+      <c r="F31" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="N31" s="1">
+        <v>202.14</v>
+      </c>
+      <c r="O31" s="1">
+        <v>47.222700000000003</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
         <v>0</v>
       </c>
     </row>
